--- a/Final Report/Tables/Table 3.8 Recruitment SSB Bio and CIs.xlsx
+++ b/Final Report/Tables/Table 3.8 Recruitment SSB Bio and CIs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20414"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E64510-F0CD-4A79-981E-A5FB2863D71B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F0ACA59-DE1F-4E98-9CF1-891578FB834E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -182,7 +182,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -209,6 +209,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -491,23 +492,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D2:W76"/>
+  <dimension ref="D2:W78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:M68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="8.85546875" style="1"/>
+    <col min="1" max="4" width="8.88671875" style="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16" width="8.85546875" style="1"/>
-    <col min="17" max="17" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="8.85546875" style="1"/>
+    <col min="6" max="6" width="10.109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="1" customWidth="1"/>
+    <col min="8" max="16" width="8.88671875" style="1"/>
+    <col min="17" max="17" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="4:23" x14ac:dyDescent="0.2">
@@ -533,7 +534,7 @@
         <v>105935</v>
       </c>
     </row>
-    <row r="3" spans="4:23" ht="23.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="4:23" ht="23.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D3" s="2" t="s">
         <v>0</v>
       </c>
@@ -591,31 +592,31 @@
         <v>28.4</v>
       </c>
       <c r="F4" s="4">
-        <v>14.5</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="G4" s="4">
-        <v>72.8</v>
+        <v>45.9</v>
       </c>
       <c r="H4" s="4">
         <v>282.89999999999998</v>
       </c>
       <c r="I4" s="4">
-        <v>250.5</v>
+        <v>260.7</v>
       </c>
       <c r="J4" s="4">
-        <v>434</v>
+        <v>344.9</v>
       </c>
       <c r="K4" s="4">
         <v>698.8</v>
       </c>
       <c r="L4" s="4">
-        <v>601.79999999999995</v>
+        <v>636.1</v>
       </c>
       <c r="M4" s="4">
-        <v>1154.5</v>
+        <v>855.2</v>
       </c>
       <c r="Q4" s="6">
-        <f>H4/($R$2/1000)</f>
+        <f t="shared" ref="Q4:Q35" si="0">H4/($R$2/1000)</f>
         <v>0.93467515990907635</v>
       </c>
       <c r="S4" s="1">
@@ -638,28 +639,28 @@
         <v>30.2</v>
       </c>
       <c r="F5" s="4">
-        <v>15.1</v>
+        <v>16.8</v>
       </c>
       <c r="G5" s="4">
-        <v>77.099999999999994</v>
+        <v>48.4</v>
       </c>
       <c r="H5" s="4">
         <v>282.3</v>
       </c>
       <c r="I5" s="4">
-        <v>249.6</v>
+        <v>260.10000000000002</v>
       </c>
       <c r="J5" s="4">
-        <v>432.5</v>
+        <v>344.6</v>
       </c>
       <c r="K5" s="4">
         <v>704.2</v>
       </c>
       <c r="L5" s="4">
-        <v>606.9</v>
+        <v>639.1</v>
       </c>
       <c r="M5" s="4">
-        <v>1163.8</v>
+        <v>858.3</v>
       </c>
       <c r="O5" s="7">
         <f>(H5-H4)/H4</f>
@@ -670,15 +671,15 @@
         <v>7.727532913566244E-3</v>
       </c>
       <c r="Q5" s="6">
-        <f>H5/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.93269281598562137</v>
       </c>
       <c r="S5" s="1">
-        <f t="shared" ref="S5:S67" si="0">H5/($T$2/1000)</f>
+        <f t="shared" ref="S5:S67" si="1">H5/($T$2/1000)</f>
         <v>2.3317281880580496</v>
       </c>
       <c r="U5" s="1">
-        <f t="shared" ref="U5:U67" si="1">H5/($V$2/1000)</f>
+        <f t="shared" ref="U5:U67" si="2">H5/($V$2/1000)</f>
         <v>2.664841648180488</v>
       </c>
       <c r="W5" s="1">
@@ -693,47 +694,47 @@
         <v>32.299999999999997</v>
       </c>
       <c r="F6" s="4">
-        <v>16.3</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="G6" s="4">
-        <v>87.6</v>
+        <v>50.4</v>
       </c>
       <c r="H6" s="4">
         <v>275.3</v>
       </c>
       <c r="I6" s="4">
-        <v>242.7</v>
+        <v>253.5</v>
       </c>
       <c r="J6" s="4">
-        <v>425.5</v>
+        <v>337.3</v>
       </c>
       <c r="K6" s="4">
         <v>700</v>
       </c>
       <c r="L6" s="4">
-        <v>602.5</v>
+        <v>632.20000000000005</v>
       </c>
       <c r="M6" s="4">
-        <v>1167.8</v>
+        <v>849.8</v>
       </c>
       <c r="O6" s="7">
-        <f t="shared" ref="O6:O67" si="2">(H6-H5)/H5</f>
+        <f t="shared" ref="O6:O67" si="3">(H6-H5)/H5</f>
         <v>-2.4796315975912149E-2</v>
       </c>
       <c r="P6" s="7">
-        <f t="shared" ref="P6:P67" si="3">(K6-K5)/K5</f>
+        <f t="shared" ref="P6:P67" si="4">(K6-K5)/K5</f>
         <v>-5.9642147117296863E-3</v>
       </c>
       <c r="Q6" s="6">
-        <f>H6/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.90956547021197864</v>
       </c>
       <c r="S6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.2739099191370209</v>
       </c>
       <c r="U6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.598763392646434</v>
       </c>
     </row>
@@ -745,47 +746,47 @@
         <v>34.299999999999997</v>
       </c>
       <c r="F7" s="4">
-        <v>16.5</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="G7" s="4">
-        <v>93.1</v>
+        <v>51.7</v>
       </c>
       <c r="H7" s="4">
         <v>263.7</v>
       </c>
       <c r="I7" s="4">
-        <v>231.3</v>
+        <v>242.1</v>
       </c>
       <c r="J7" s="4">
-        <v>413.7</v>
+        <v>325.10000000000002</v>
       </c>
       <c r="K7" s="4">
         <v>689.8</v>
       </c>
       <c r="L7" s="4">
-        <v>592</v>
+        <v>614.9</v>
       </c>
       <c r="M7" s="4">
-        <v>1163.4000000000001</v>
+        <v>834.4</v>
       </c>
       <c r="O7" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.2135851798038582E-2</v>
       </c>
       <c r="P7" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.4571428571428636E-2</v>
       </c>
       <c r="Q7" s="6">
-        <f>H7/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.87124015435851343</v>
       </c>
       <c r="S7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1780967877821737</v>
       </c>
       <c r="U7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4892622834757159</v>
       </c>
     </row>
@@ -797,47 +798,47 @@
         <v>35.5</v>
       </c>
       <c r="F8" s="4">
-        <v>17.100000000000001</v>
+        <v>18</v>
       </c>
       <c r="G8" s="4">
-        <v>89.8</v>
+        <v>52.9</v>
       </c>
       <c r="H8" s="4">
         <v>259.3</v>
       </c>
       <c r="I8" s="4">
-        <v>226.5</v>
+        <v>237.4</v>
       </c>
       <c r="J8" s="4">
-        <v>410.5</v>
+        <v>320</v>
       </c>
       <c r="K8" s="4">
         <v>692.9</v>
       </c>
       <c r="L8" s="4">
-        <v>592.29999999999995</v>
+        <v>610.6</v>
       </c>
       <c r="M8" s="4">
-        <v>1171.5999999999999</v>
+        <v>831.4</v>
       </c>
       <c r="O8" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.6685627607129227E-2</v>
       </c>
       <c r="P8" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.4940562481879135E-3</v>
       </c>
       <c r="Q8" s="6">
-        <f>H8/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.85670296558650949</v>
       </c>
       <c r="S8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.141753875888956</v>
       </c>
       <c r="U8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4477273799971679</v>
       </c>
     </row>
@@ -849,47 +850,47 @@
         <v>36</v>
       </c>
       <c r="F9" s="4">
-        <v>17.2</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="G9" s="4">
-        <v>90.9</v>
+        <v>52.5</v>
       </c>
       <c r="H9" s="4">
         <v>260.7</v>
       </c>
       <c r="I9" s="4">
-        <v>227.4</v>
+        <v>237.9</v>
       </c>
       <c r="J9" s="4">
-        <v>413.9</v>
+        <v>319.2</v>
       </c>
       <c r="K9" s="4">
         <v>707.7</v>
       </c>
       <c r="L9" s="4">
-        <v>604.6</v>
+        <v>620.1</v>
       </c>
       <c r="M9" s="4">
-        <v>1202.4000000000001</v>
+        <v>837</v>
       </c>
       <c r="O9" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.3991515618973286E-3</v>
       </c>
       <c r="P9" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.1359503535863859E-2</v>
       </c>
       <c r="Q9" s="6">
-        <f>H9/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.86132843474123788</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1533175296731613</v>
       </c>
       <c r="U9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4609430311039788</v>
       </c>
     </row>
@@ -901,47 +902,47 @@
         <v>34.299999999999997</v>
       </c>
       <c r="F10" s="4">
-        <v>16.7</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="G10" s="4">
-        <v>82.4</v>
+        <v>51.6</v>
       </c>
       <c r="H10" s="4">
         <v>263.2</v>
       </c>
       <c r="I10" s="4">
-        <v>229.7</v>
+        <v>239.2</v>
       </c>
       <c r="J10" s="4">
-        <v>419.5</v>
+        <v>319.8</v>
       </c>
       <c r="K10" s="4">
         <v>719.8</v>
       </c>
       <c r="L10" s="4">
-        <v>614.4</v>
+        <v>625.29999999999995</v>
       </c>
       <c r="M10" s="4">
-        <v>1217.5999999999999</v>
+        <v>841.3</v>
       </c>
       <c r="O10" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.5895665515918684E-3</v>
       </c>
       <c r="P10" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.7097640243040706E-2</v>
       </c>
       <c r="Q10" s="6">
-        <f>H10/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.86958820108896751</v>
       </c>
       <c r="S10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1739669114306714</v>
       </c>
       <c r="U10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4845424080804266</v>
       </c>
     </row>
@@ -953,47 +954,47 @@
         <v>31.5</v>
       </c>
       <c r="F11" s="4">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="G11" s="4">
-        <v>73.2</v>
+        <v>47.9</v>
       </c>
       <c r="H11" s="4">
         <v>263.89999999999998</v>
       </c>
       <c r="I11" s="4">
-        <v>230.4</v>
+        <v>238.1</v>
       </c>
       <c r="J11" s="4">
-        <v>420.7</v>
+        <v>318</v>
       </c>
       <c r="K11" s="4">
         <v>721.6</v>
       </c>
       <c r="L11" s="4">
-        <v>617.5</v>
+        <v>623.70000000000005</v>
       </c>
       <c r="M11" s="4">
-        <v>1209.5999999999999</v>
+        <v>836.3</v>
       </c>
       <c r="O11" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.6595744680850634E-3</v>
       </c>
       <c r="P11" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.5006946373993724E-3</v>
       </c>
       <c r="Q11" s="6">
-        <f>H11/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.87190093566633176</v>
       </c>
       <c r="S11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1797487383227745</v>
       </c>
       <c r="U11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4911502336338316</v>
       </c>
     </row>
@@ -1005,47 +1006,47 @@
         <v>28.6</v>
       </c>
       <c r="F12" s="4">
-        <v>15.1</v>
+        <v>16.7</v>
       </c>
       <c r="G12" s="4">
-        <v>64.900000000000006</v>
+        <v>45.6</v>
       </c>
       <c r="H12" s="4">
         <v>264.10000000000002</v>
       </c>
       <c r="I12" s="4">
-        <v>230.4</v>
+        <v>235.8</v>
       </c>
       <c r="J12" s="4">
-        <v>422.1</v>
+        <v>315</v>
       </c>
       <c r="K12" s="4">
         <v>715.6</v>
       </c>
       <c r="L12" s="4">
-        <v>613.6</v>
+        <v>617.20000000000005</v>
       </c>
       <c r="M12" s="4">
-        <v>1197</v>
+        <v>824.7</v>
       </c>
       <c r="O12" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.5786282682851645E-4</v>
       </c>
       <c r="P12" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8.3148558758314849E-3</v>
       </c>
       <c r="Q12" s="6">
-        <f>H12/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.87256171697415019</v>
       </c>
       <c r="S12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1814006888633757</v>
       </c>
       <c r="U12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4930381837919482</v>
       </c>
     </row>
@@ -1057,47 +1058,47 @@
         <v>26</v>
       </c>
       <c r="F13" s="4">
-        <v>14.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="G13" s="4">
-        <v>58.4</v>
+        <v>42.3</v>
       </c>
       <c r="H13" s="4">
         <v>259.10000000000002</v>
       </c>
       <c r="I13" s="4">
-        <v>225.3</v>
+        <v>228.2</v>
       </c>
       <c r="J13" s="4">
-        <v>418.3</v>
+        <v>306.7</v>
       </c>
       <c r="K13" s="4">
         <v>693.8</v>
       </c>
       <c r="L13" s="4">
-        <v>596.20000000000005</v>
+        <v>598.5</v>
       </c>
       <c r="M13" s="4">
-        <v>1163.2</v>
+        <v>800</v>
       </c>
       <c r="O13" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.8932222642938281E-2</v>
       </c>
       <c r="P13" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.0463946338736819E-2</v>
       </c>
       <c r="Q13" s="6">
-        <f>H13/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.85604218427869117</v>
       </c>
       <c r="S13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1401019253483553</v>
       </c>
       <c r="U13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.4458394298390522</v>
       </c>
     </row>
@@ -1109,47 +1110,47 @@
         <v>23.8</v>
       </c>
       <c r="F14" s="4">
-        <v>13.4</v>
+        <v>15.3</v>
       </c>
       <c r="G14" s="4">
-        <v>51.3</v>
+        <v>39.4</v>
       </c>
       <c r="H14" s="4">
         <v>251</v>
       </c>
       <c r="I14" s="4">
-        <v>217.2</v>
+        <v>218.1</v>
       </c>
       <c r="J14" s="4">
-        <v>410.7</v>
+        <v>295.8</v>
       </c>
       <c r="K14" s="4">
         <v>663</v>
       </c>
       <c r="L14" s="4">
-        <v>568.6</v>
+        <v>571.6</v>
       </c>
       <c r="M14" s="4">
-        <v>1114.7</v>
+        <v>764.9</v>
       </c>
       <c r="O14" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1262060980316565E-2</v>
       </c>
       <c r="P14" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.4393196886710805E-2</v>
       </c>
       <c r="Q14" s="6">
-        <f>H14/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.82928054131204731</v>
       </c>
       <c r="S14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.0731979284540221</v>
       </c>
       <c r="U14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.3693774484353614</v>
       </c>
     </row>
@@ -1161,47 +1162,47 @@
         <v>21.8</v>
       </c>
       <c r="F15" s="4">
-        <v>12.3</v>
+        <v>14.6</v>
       </c>
       <c r="G15" s="4">
-        <v>48.9</v>
+        <v>36.6</v>
       </c>
       <c r="H15" s="4">
         <v>240.7</v>
       </c>
       <c r="I15" s="4">
-        <v>207.2</v>
+        <v>206.5</v>
       </c>
       <c r="J15" s="4">
-        <v>398.6</v>
+        <v>282.39999999999998</v>
       </c>
       <c r="K15" s="4">
         <v>628.79999999999995</v>
       </c>
       <c r="L15" s="4">
-        <v>539</v>
+        <v>542.20000000000005</v>
       </c>
       <c r="M15" s="4">
-        <v>1058.9000000000001</v>
+        <v>728.9</v>
       </c>
       <c r="O15" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.1035856573705225E-2</v>
       </c>
       <c r="P15" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.1583710407239886E-2</v>
       </c>
       <c r="Q15" s="6">
-        <f>H15/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.79525030395940144</v>
       </c>
       <c r="S15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.98812247561308</v>
       </c>
       <c r="U15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2721480152923963</v>
       </c>
     </row>
@@ -1213,47 +1214,47 @@
         <v>20.2</v>
       </c>
       <c r="F16" s="4">
-        <v>11.5</v>
+        <v>14.1</v>
       </c>
       <c r="G16" s="4">
-        <v>45.9</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="H16" s="4">
         <v>226.9</v>
       </c>
       <c r="I16" s="4">
-        <v>194.1</v>
+        <v>192.3</v>
       </c>
       <c r="J16" s="4">
-        <v>383.2</v>
+        <v>266.2</v>
       </c>
       <c r="K16" s="4">
         <v>587</v>
       </c>
       <c r="L16" s="4">
-        <v>502.2</v>
+        <v>508.7</v>
       </c>
       <c r="M16" s="4">
-        <v>992.9</v>
+        <v>685.9</v>
       </c>
       <c r="O16" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-5.7332779393435743E-2</v>
       </c>
       <c r="P16" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6.6475826972010113E-2</v>
       </c>
       <c r="Q16" s="6">
-        <f>H16/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.74965639371993442</v>
       </c>
       <c r="S16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.874137888311624</v>
       </c>
       <c r="U16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1418794543824045</v>
       </c>
     </row>
@@ -1265,47 +1266,47 @@
         <v>19.100000000000001</v>
       </c>
       <c r="F17" s="4">
-        <v>11.2</v>
+        <v>13.6</v>
       </c>
       <c r="G17" s="4">
-        <v>43.6</v>
+        <v>33.4</v>
       </c>
       <c r="H17" s="4">
         <v>207.4</v>
       </c>
       <c r="I17" s="4">
-        <v>175.3</v>
+        <v>173.6</v>
       </c>
       <c r="J17" s="4">
-        <v>359.5</v>
+        <v>245</v>
       </c>
       <c r="K17" s="4">
         <v>535.1</v>
       </c>
       <c r="L17" s="4">
-        <v>453.5</v>
+        <v>464</v>
       </c>
       <c r="M17" s="4">
-        <v>926.8</v>
+        <v>633.1</v>
       </c>
       <c r="O17" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8.5940943146760679E-2</v>
       </c>
       <c r="P17" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8.8415672913117513E-2</v>
       </c>
       <c r="Q17" s="6">
-        <f>H17/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.68523021620764391</v>
       </c>
       <c r="S17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.7130727106030446</v>
       </c>
       <c r="U17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9578043139661112</v>
       </c>
     </row>
@@ -1317,47 +1318,47 @@
         <v>18.899999999999999</v>
       </c>
       <c r="F18" s="4">
-        <v>11.4</v>
+        <v>13.4</v>
       </c>
       <c r="G18" s="4">
-        <v>43.5</v>
+        <v>33.6</v>
       </c>
       <c r="H18" s="4">
         <v>193.6</v>
       </c>
       <c r="I18" s="4">
-        <v>162.69999999999999</v>
+        <v>161.5</v>
       </c>
       <c r="J18" s="4">
-        <v>342.2</v>
+        <v>229.9</v>
       </c>
       <c r="K18" s="4">
         <v>500.7</v>
       </c>
       <c r="L18" s="4">
-        <v>423.9</v>
+        <v>436.5</v>
       </c>
       <c r="M18" s="4">
-        <v>881.7</v>
+        <v>599.79999999999995</v>
       </c>
       <c r="O18" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.6538090646094561E-2</v>
       </c>
       <c r="P18" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6.4287049149691702E-2</v>
       </c>
       <c r="Q18" s="6">
-        <f>H18/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.63963630596817667</v>
       </c>
       <c r="S18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5990881233015883</v>
       </c>
       <c r="U18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8275357530561191</v>
       </c>
     </row>
@@ -1369,47 +1370,47 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="F19" s="4">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="G19" s="4">
-        <v>21.9</v>
+        <v>17.5</v>
       </c>
       <c r="H19" s="4">
         <v>179.6</v>
       </c>
       <c r="I19" s="4">
-        <v>150.30000000000001</v>
+        <v>149.69999999999999</v>
       </c>
       <c r="J19" s="4">
-        <v>322.10000000000002</v>
+        <v>215.1</v>
       </c>
       <c r="K19" s="4">
         <v>458.7</v>
       </c>
       <c r="L19" s="4">
-        <v>385.7</v>
+        <v>397.9</v>
       </c>
       <c r="M19" s="4">
-        <v>807.7</v>
+        <v>551.4</v>
       </c>
       <c r="O19" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7.2314049586776868E-2</v>
       </c>
       <c r="P19" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8.3882564409826249E-2</v>
       </c>
       <c r="Q19" s="6">
-        <f>H19/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.59338161442089121</v>
       </c>
       <c r="S19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4834515854595312</v>
       </c>
       <c r="U19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6953792419880114</v>
       </c>
     </row>
@@ -1424,44 +1425,44 @@
         <v>1.4</v>
       </c>
       <c r="G20" s="4">
-        <v>25.6</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="H20" s="4">
         <v>167.1</v>
       </c>
       <c r="I20" s="4">
-        <v>139.4</v>
+        <v>139.6</v>
       </c>
       <c r="J20" s="4">
-        <v>302.89999999999998</v>
+        <v>201.8</v>
       </c>
       <c r="K20" s="4">
         <v>421.9</v>
       </c>
       <c r="L20" s="4">
-        <v>352.3</v>
+        <v>364.5</v>
       </c>
       <c r="M20" s="4">
-        <v>741.8</v>
+        <v>505.7</v>
       </c>
       <c r="O20" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.9599109131403117E-2</v>
       </c>
       <c r="P20" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8.0226727708742118E-2</v>
       </c>
       <c r="Q20" s="6">
-        <f>H20/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.55208278268224342</v>
       </c>
       <c r="S20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3802046766719804</v>
       </c>
       <c r="U20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5773823571057723</v>
       </c>
     </row>
@@ -1476,44 +1477,44 @@
         <v>1.6</v>
       </c>
       <c r="G21" s="4">
-        <v>28.7</v>
+        <v>23.2</v>
       </c>
       <c r="H21" s="4">
         <v>153.19999999999999</v>
       </c>
       <c r="I21" s="4">
-        <v>127</v>
+        <v>127.8</v>
       </c>
       <c r="J21" s="4">
-        <v>281.3</v>
+        <v>187.4</v>
       </c>
       <c r="K21" s="4">
         <v>384</v>
       </c>
       <c r="L21" s="4">
-        <v>318.60000000000002</v>
+        <v>328.6</v>
       </c>
       <c r="M21" s="4">
-        <v>673.9</v>
+        <v>458.8</v>
       </c>
       <c r="O21" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8.318372232196293E-2</v>
       </c>
       <c r="P21" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8.9831713676226541E-2</v>
       </c>
       <c r="Q21" s="6">
-        <f>H21/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.50615848178886713</v>
       </c>
       <c r="S21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2653941141002236</v>
       </c>
       <c r="U21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4461698211167224</v>
       </c>
     </row>
@@ -1525,47 +1526,47 @@
         <v>13.9</v>
       </c>
       <c r="F22" s="4">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="G22" s="4">
-        <v>38</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="H22" s="4">
         <v>143.9</v>
       </c>
       <c r="I22" s="4">
-        <v>118.6</v>
+        <v>120.5</v>
       </c>
       <c r="J22" s="4">
-        <v>264.7</v>
+        <v>177</v>
       </c>
       <c r="K22" s="4">
         <v>361.3</v>
       </c>
       <c r="L22" s="4">
-        <v>295.60000000000002</v>
+        <v>305.60000000000002</v>
       </c>
       <c r="M22" s="4">
-        <v>625.20000000000005</v>
+        <v>430.3</v>
       </c>
       <c r="O22" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.0704960835509032E-2</v>
       </c>
       <c r="P22" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.9114583333333304E-2</v>
       </c>
       <c r="Q22" s="6">
-        <f>H22/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.47543215097531316</v>
       </c>
       <c r="S22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1885784139622859</v>
       </c>
       <c r="U22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3583801387643366</v>
       </c>
     </row>
@@ -1577,47 +1578,47 @@
         <v>83</v>
       </c>
       <c r="F23" s="4">
-        <v>51.3</v>
+        <v>45.7</v>
       </c>
       <c r="G23" s="4">
-        <v>189.7</v>
+        <v>134.6</v>
       </c>
       <c r="H23" s="4">
         <v>140.6</v>
       </c>
       <c r="I23" s="4">
-        <v>116.2</v>
+        <v>119.2</v>
       </c>
       <c r="J23" s="4">
-        <v>255.7</v>
+        <v>172.8</v>
       </c>
       <c r="K23" s="4">
         <v>427.6</v>
       </c>
       <c r="L23" s="4">
-        <v>357.5</v>
+        <v>366.6</v>
       </c>
       <c r="M23" s="4">
-        <v>762</v>
+        <v>518</v>
       </c>
       <c r="O23" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.2932592077831906E-2</v>
       </c>
       <c r="P23" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.18350401328535845</v>
       </c>
       <c r="Q23" s="6">
-        <f>H23/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.46452925939631012</v>
       </c>
       <c r="S23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1613212300423725</v>
       </c>
       <c r="U23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3272289611554253</v>
       </c>
     </row>
@@ -1629,47 +1630,47 @@
         <v>46</v>
       </c>
       <c r="F24" s="4">
-        <v>5.6</v>
+        <v>5</v>
       </c>
       <c r="G24" s="4">
-        <v>115</v>
+        <v>90.2</v>
       </c>
       <c r="H24" s="4">
         <v>137</v>
       </c>
       <c r="I24" s="4">
-        <v>113.2</v>
+        <v>116.8</v>
       </c>
       <c r="J24" s="4">
-        <v>245.1</v>
+        <v>167.3</v>
       </c>
       <c r="K24" s="4">
         <v>469.8</v>
       </c>
       <c r="L24" s="4">
-        <v>386.4</v>
+        <v>400.9</v>
       </c>
       <c r="M24" s="4">
-        <v>811.9</v>
+        <v>553.4</v>
       </c>
       <c r="O24" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.5604551920341355E-2</v>
       </c>
       <c r="P24" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.8690364826941032E-2</v>
       </c>
       <c r="Q24" s="6">
-        <f>H24/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.4526351958555796</v>
       </c>
       <c r="S24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1315861203115578</v>
       </c>
       <c r="U24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2932458583093407</v>
       </c>
     </row>
@@ -1684,44 +1685,44 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="G25" s="4">
-        <v>96</v>
+        <v>62.8</v>
       </c>
       <c r="H25" s="4">
         <v>136</v>
       </c>
       <c r="I25" s="4">
-        <v>113.1</v>
+        <v>116.4</v>
       </c>
       <c r="J25" s="4">
-        <v>237.6</v>
+        <v>164.1</v>
       </c>
       <c r="K25" s="4">
         <v>492</v>
       </c>
       <c r="L25" s="4">
-        <v>404.1</v>
+        <v>415.9</v>
       </c>
       <c r="M25" s="4">
-        <v>854.7</v>
+        <v>575.4</v>
       </c>
       <c r="O25" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7.2992700729927005E-3</v>
       </c>
       <c r="P25" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.7254150702426542E-2</v>
       </c>
       <c r="Q25" s="6">
-        <f>H25/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.4493312893164878</v>
       </c>
       <c r="S25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1233263676085539</v>
       </c>
       <c r="U25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2838061075187615</v>
       </c>
     </row>
@@ -1733,47 +1734,47 @@
         <v>69.3</v>
       </c>
       <c r="F26" s="4">
-        <v>17</v>
+        <v>23.3</v>
       </c>
       <c r="G26" s="4">
-        <v>169.8</v>
+        <v>132.6</v>
       </c>
       <c r="H26" s="4">
         <v>138.1</v>
       </c>
       <c r="I26" s="4">
-        <v>115.3</v>
+        <v>118.7</v>
       </c>
       <c r="J26" s="4">
-        <v>236.6</v>
+        <v>164.9</v>
       </c>
       <c r="K26" s="4">
         <v>558.5</v>
       </c>
       <c r="L26" s="4">
-        <v>464.4</v>
+        <v>478.7</v>
       </c>
       <c r="M26" s="4">
-        <v>957</v>
+        <v>664.5</v>
       </c>
       <c r="O26" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5441176470588194E-2</v>
       </c>
       <c r="P26" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13516260162601626</v>
       </c>
       <c r="Q26" s="6">
-        <f>H26/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.45626949304858061</v>
       </c>
       <c r="S26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1406718482848623</v>
       </c>
       <c r="U26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3036295841789776</v>
       </c>
     </row>
@@ -1785,47 +1786,47 @@
         <v>39.700000000000003</v>
       </c>
       <c r="F27" s="4">
-        <v>4.0999999999999996</v>
+        <v>2.9</v>
       </c>
       <c r="G27" s="4">
-        <v>123.5</v>
+        <v>81.7</v>
       </c>
       <c r="H27" s="4">
         <v>146.69999999999999</v>
       </c>
       <c r="I27" s="4">
-        <v>123.1</v>
+        <v>126.6</v>
       </c>
       <c r="J27" s="4">
-        <v>246.7</v>
+        <v>173</v>
       </c>
       <c r="K27" s="4">
         <v>600.20000000000005</v>
       </c>
       <c r="L27" s="4">
-        <v>498.8</v>
+        <v>516</v>
       </c>
       <c r="M27" s="4">
-        <v>1009.7</v>
+        <v>698.8</v>
       </c>
       <c r="O27" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6.2273714699493082E-2</v>
       </c>
       <c r="P27" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.4664279319606175E-2</v>
       </c>
       <c r="Q27" s="6">
-        <f>H27/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.48468308928477022</v>
       </c>
       <c r="S27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2117057215306972</v>
       </c>
       <c r="U27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3848114409779579</v>
       </c>
     </row>
@@ -1840,44 +1841,44 @@
         <v>1.9</v>
       </c>
       <c r="G28" s="4">
-        <v>47.8</v>
+        <v>39.4</v>
       </c>
       <c r="H28" s="4">
         <v>161.4</v>
       </c>
       <c r="I28" s="4">
-        <v>136</v>
+        <v>139.80000000000001</v>
       </c>
       <c r="J28" s="4">
-        <v>268.5</v>
+        <v>188.4</v>
       </c>
       <c r="K28" s="4">
         <v>611</v>
       </c>
       <c r="L28" s="4">
-        <v>509.3</v>
+        <v>527.6</v>
       </c>
       <c r="M28" s="4">
-        <v>1018.9</v>
+        <v>706.9</v>
       </c>
       <c r="O28" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.10020449897750523</v>
       </c>
       <c r="P28" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.799400199933348E-2</v>
       </c>
       <c r="Q28" s="6">
-        <f>H28/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.53325051540942003</v>
       </c>
       <c r="S28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3331240862648572</v>
       </c>
       <c r="U28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5235757775994714</v>
       </c>
     </row>
@@ -1889,47 +1890,47 @@
         <v>15.5</v>
       </c>
       <c r="F29" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.4</v>
       </c>
       <c r="G29" s="4">
-        <v>49.7</v>
+        <v>44</v>
       </c>
       <c r="H29" s="4">
         <v>179.1</v>
       </c>
       <c r="I29" s="4">
-        <v>151.9</v>
+        <v>155.80000000000001</v>
       </c>
       <c r="J29" s="4">
-        <v>293.2</v>
+        <v>207.7</v>
       </c>
       <c r="K29" s="4">
         <v>611</v>
       </c>
       <c r="L29" s="4">
-        <v>514</v>
+        <v>530.79999999999995</v>
       </c>
       <c r="M29" s="4">
-        <v>1007.1</v>
+        <v>705.6</v>
       </c>
       <c r="O29" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1096654275092936</v>
       </c>
       <c r="P29" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q29" s="6">
-        <f>H29/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.59172966115134529</v>
       </c>
       <c r="S29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4793217091080293</v>
       </c>
       <c r="U29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6906593665927219</v>
       </c>
     </row>
@@ -1941,47 +1942,47 @@
         <v>25.5</v>
       </c>
       <c r="F30" s="4">
-        <v>5.9</v>
+        <v>4.2</v>
       </c>
       <c r="G30" s="4">
-        <v>62.9</v>
+        <v>48.5</v>
       </c>
       <c r="H30" s="4">
         <v>196.4</v>
       </c>
       <c r="I30" s="4">
-        <v>167.3</v>
+        <v>171.1</v>
       </c>
       <c r="J30" s="4">
-        <v>319.8</v>
+        <v>226.4</v>
       </c>
       <c r="K30" s="4">
         <v>614</v>
       </c>
       <c r="L30" s="4">
-        <v>521.1</v>
+        <v>536.70000000000005</v>
       </c>
       <c r="M30" s="4">
-        <v>996.2</v>
+        <v>704.4</v>
       </c>
       <c r="O30" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.6594081518704702E-2</v>
       </c>
       <c r="P30" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.9099836333878887E-3</v>
       </c>
       <c r="Q30" s="6">
-        <f>H30/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.64888724427763389</v>
       </c>
       <c r="S30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6222154308699999</v>
       </c>
       <c r="U30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8539670552697409</v>
       </c>
     </row>
@@ -1993,47 +1994,47 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="F31" s="4">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="G31" s="4">
-        <v>31</v>
+        <v>25.5</v>
       </c>
       <c r="H31" s="4">
         <v>204.9</v>
       </c>
       <c r="I31" s="4">
-        <v>174.5</v>
+        <v>178.3</v>
       </c>
       <c r="J31" s="4">
-        <v>333.6</v>
+        <v>236.5</v>
       </c>
       <c r="K31" s="4">
         <v>582.4</v>
       </c>
       <c r="L31" s="4">
-        <v>493.8</v>
+        <v>509.8</v>
       </c>
       <c r="M31" s="4">
-        <v>941.9</v>
+        <v>667.4</v>
       </c>
       <c r="O31" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.3279022403258656E-2</v>
       </c>
       <c r="P31" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.146579804560264E-2</v>
       </c>
       <c r="Q31" s="6">
-        <f>H31/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.67697044985991428</v>
       </c>
       <c r="S31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6924233288455344</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9342049369896634</v>
       </c>
     </row>
@@ -2045,47 +2046,47 @@
         <v>6.8</v>
       </c>
       <c r="F32" s="4">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="G32" s="4">
-        <v>20.2</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="H32" s="4">
         <v>204.9</v>
       </c>
       <c r="I32" s="4">
-        <v>173.4</v>
+        <v>178.1</v>
       </c>
       <c r="J32" s="4">
-        <v>336.9</v>
+        <v>236.8</v>
       </c>
       <c r="K32" s="4">
         <v>536.1</v>
       </c>
       <c r="L32" s="4">
-        <v>454.2</v>
+        <v>469.6</v>
       </c>
       <c r="M32" s="4">
-        <v>874.6</v>
+        <v>614.6</v>
       </c>
       <c r="O32" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P32" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7.9498626373626299E-2</v>
       </c>
       <c r="Q32" s="6">
-        <f>H32/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.67697044985991428</v>
       </c>
       <c r="S32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6924233288455344</v>
       </c>
       <c r="U32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9342049369896634</v>
       </c>
     </row>
@@ -2097,47 +2098,47 @@
         <v>7.7</v>
       </c>
       <c r="F33" s="4">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="G33" s="4">
-        <v>21.3</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="H33" s="4">
         <v>196.8</v>
       </c>
       <c r="I33" s="4">
-        <v>165.6</v>
+        <v>170</v>
       </c>
       <c r="J33" s="4">
-        <v>325.60000000000002</v>
+        <v>228.3</v>
       </c>
       <c r="K33" s="4">
         <v>484.1</v>
       </c>
       <c r="L33" s="4">
-        <v>409.2</v>
+        <v>423.2</v>
       </c>
       <c r="M33" s="4">
-        <v>792.3</v>
+        <v>557.6</v>
       </c>
       <c r="O33" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.9531478770131745E-2</v>
       </c>
       <c r="P33" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-9.6996828949822797E-2</v>
       </c>
       <c r="Q33" s="6">
-        <f>H33/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.65020880689327054</v>
       </c>
       <c r="S33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.6255193319512014</v>
       </c>
       <c r="U33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8577429555859726</v>
       </c>
     </row>
@@ -2149,47 +2150,47 @@
         <v>12.3</v>
       </c>
       <c r="F34" s="4">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="G34" s="4">
-        <v>30.5</v>
+        <v>24.4</v>
       </c>
       <c r="H34" s="4">
         <v>184.3</v>
       </c>
       <c r="I34" s="4">
-        <v>154</v>
+        <v>158.5</v>
       </c>
       <c r="J34" s="4">
-        <v>308.8</v>
+        <v>214.7</v>
       </c>
       <c r="K34" s="4">
         <v>439.5</v>
       </c>
       <c r="L34" s="4">
-        <v>368.9</v>
+        <v>383.2</v>
       </c>
       <c r="M34" s="4">
-        <v>725.1</v>
+        <v>505.7</v>
       </c>
       <c r="O34" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.3516260162601618E-2</v>
       </c>
       <c r="P34" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-9.2129725263375373E-2</v>
       </c>
       <c r="Q34" s="6">
-        <f>H34/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.60890997515462286</v>
       </c>
       <c r="S34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.5222724231636506</v>
       </c>
       <c r="U34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.7397460707037335</v>
       </c>
     </row>
@@ -2201,47 +2202,47 @@
         <v>23.7</v>
       </c>
       <c r="F35" s="4">
-        <v>12.3</v>
+        <v>9.6</v>
       </c>
       <c r="G35" s="4">
-        <v>48</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="H35" s="4">
         <v>170.4</v>
       </c>
       <c r="I35" s="4">
-        <v>141.80000000000001</v>
+        <v>145.9</v>
       </c>
       <c r="J35" s="4">
-        <v>287.39999999999998</v>
+        <v>198.9</v>
       </c>
       <c r="K35" s="4">
         <v>414.2</v>
       </c>
       <c r="L35" s="4">
-        <v>346.7</v>
+        <v>359.1</v>
       </c>
       <c r="M35" s="4">
-        <v>685.4</v>
+        <v>477.5</v>
       </c>
       <c r="O35" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7.5420510037981572E-2</v>
       </c>
       <c r="P35" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.7565415244596158E-2</v>
       </c>
       <c r="Q35" s="6">
-        <f>H35/($R$2/1000)</f>
+        <f t="shared" si="0"/>
         <v>0.56298567426124646</v>
       </c>
       <c r="S35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4074618605918938</v>
       </c>
       <c r="U35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.6085335347146836</v>
       </c>
     </row>
@@ -2256,44 +2257,44 @@
         <v>1.3</v>
       </c>
       <c r="G36" s="4">
-        <v>23.1</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="H36" s="4">
         <v>156.6</v>
       </c>
       <c r="I36" s="4">
-        <v>130.1</v>
+        <v>134</v>
       </c>
       <c r="J36" s="4">
-        <v>265.60000000000002</v>
+        <v>183.2</v>
       </c>
       <c r="K36" s="4">
         <v>380.7</v>
       </c>
       <c r="L36" s="4">
-        <v>318.89999999999998</v>
+        <v>329.6</v>
       </c>
       <c r="M36" s="4">
-        <v>639.20000000000005</v>
+        <v>439.8</v>
       </c>
       <c r="O36" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8.0985915492957805E-2</v>
       </c>
       <c r="P36" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-8.0878802510864323E-2</v>
       </c>
       <c r="Q36" s="6">
-        <f>H36/($R$2/1000)</f>
+        <f t="shared" ref="Q36:Q68" si="5">H36/($R$2/1000)</f>
         <v>0.51739176402177933</v>
       </c>
       <c r="S36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2934772732904376</v>
       </c>
       <c r="U36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.4782649738046916</v>
       </c>
     </row>
@@ -2305,47 +2306,47 @@
         <v>25.5</v>
       </c>
       <c r="F37" s="4">
-        <v>16.5</v>
+        <v>15.9</v>
       </c>
       <c r="G37" s="4">
-        <v>50.2</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="H37" s="4">
         <v>143.6</v>
       </c>
       <c r="I37" s="4">
-        <v>119</v>
+        <v>122.7</v>
       </c>
       <c r="J37" s="4">
-        <v>244.5</v>
+        <v>167.9</v>
       </c>
       <c r="K37" s="4">
         <v>370.2</v>
       </c>
       <c r="L37" s="4">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="M37" s="4">
-        <v>616.6</v>
+        <v>427.6</v>
       </c>
       <c r="O37" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8.3014048531289908E-2</v>
       </c>
       <c r="P37" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.7580772261623327E-2</v>
       </c>
       <c r="Q37" s="6">
-        <f>H37/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.47444097901358562</v>
       </c>
       <c r="S37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1861004881513846</v>
       </c>
       <c r="U37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.3555482135271628</v>
       </c>
     </row>
@@ -2360,44 +2361,44 @@
         <v>1.6</v>
       </c>
       <c r="G38" s="4">
-        <v>18.399999999999999</v>
+        <v>14.4</v>
       </c>
       <c r="H38" s="4">
         <v>130.30000000000001</v>
       </c>
       <c r="I38" s="4">
-        <v>108.1</v>
+        <v>111.4</v>
       </c>
       <c r="J38" s="4">
-        <v>223.4</v>
+        <v>152.6</v>
       </c>
       <c r="K38" s="4">
         <v>343.2</v>
       </c>
       <c r="L38" s="4">
-        <v>286.89999999999998</v>
+        <v>297.3</v>
       </c>
       <c r="M38" s="4">
-        <v>578.20000000000005</v>
+        <v>396.6</v>
       </c>
       <c r="O38" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-9.2618384401114084E-2</v>
       </c>
       <c r="P38" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7.2933549432739067E-2</v>
       </c>
       <c r="Q38" s="6">
-        <f>H38/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.43049902204366441</v>
       </c>
       <c r="S38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0762457772014307</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2299995280124605</v>
       </c>
     </row>
@@ -2412,44 +2413,44 @@
         <v>1.9</v>
       </c>
       <c r="G39" s="4">
-        <v>19.2</v>
+        <v>14.7</v>
       </c>
       <c r="H39" s="4">
         <v>119.4</v>
       </c>
       <c r="I39" s="4">
-        <v>98.9</v>
+        <v>101.7</v>
       </c>
       <c r="J39" s="4">
-        <v>205.2</v>
+        <v>139.9</v>
       </c>
       <c r="K39" s="4">
         <v>317.89999999999998</v>
       </c>
       <c r="L39" s="4">
-        <v>265.3</v>
+        <v>274.8</v>
       </c>
       <c r="M39" s="4">
-        <v>537.9</v>
+        <v>367.7</v>
       </c>
       <c r="O39" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-8.3653108211818913E-2</v>
       </c>
       <c r="P39" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-7.3717948717948747E-2</v>
       </c>
       <c r="Q39" s="6">
-        <f>H39/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.39448644076756356</v>
       </c>
       <c r="S39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.98621447273868623</v>
       </c>
       <c r="U39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.1271062443951481</v>
       </c>
     </row>
@@ -2461,47 +2462,47 @@
         <v>12.6</v>
       </c>
       <c r="F40" s="4">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="G40" s="4">
-        <v>28</v>
+        <v>21.5</v>
       </c>
       <c r="H40" s="4">
         <v>111.8</v>
       </c>
       <c r="I40" s="4">
-        <v>92.3</v>
+        <v>95.2</v>
       </c>
       <c r="J40" s="4">
-        <v>192.8</v>
+        <v>130.9</v>
       </c>
       <c r="K40" s="4">
         <v>300.60000000000002</v>
       </c>
       <c r="L40" s="4">
-        <v>250</v>
+        <v>259.8</v>
       </c>
       <c r="M40" s="4">
-        <v>506.6</v>
+        <v>347.8</v>
       </c>
       <c r="O40" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-6.3651591289782317E-2</v>
       </c>
       <c r="P40" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.441962881409234E-2</v>
       </c>
       <c r="Q40" s="6">
-        <f>H40/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.36937675107046569</v>
       </c>
       <c r="S40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.92344035219585519</v>
       </c>
       <c r="U40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0553641383867465</v>
       </c>
     </row>
@@ -2513,47 +2514,47 @@
         <v>20.7</v>
       </c>
       <c r="F41" s="4">
-        <v>11.7</v>
+        <v>10.3</v>
       </c>
       <c r="G41" s="4">
-        <v>43.5</v>
+        <v>31.1</v>
       </c>
       <c r="H41" s="4">
         <v>106.6</v>
       </c>
       <c r="I41" s="4">
-        <v>88</v>
+        <v>90.8</v>
       </c>
       <c r="J41" s="4">
-        <v>183.1</v>
+        <v>124.6</v>
       </c>
       <c r="K41" s="4">
         <v>296.3</v>
       </c>
       <c r="L41" s="4">
-        <v>246.8</v>
+        <v>255.5</v>
       </c>
       <c r="M41" s="4">
-        <v>504.6</v>
+        <v>343.4</v>
       </c>
       <c r="O41" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.6511627906976771E-2</v>
       </c>
       <c r="P41" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.4304723885562245E-2</v>
       </c>
       <c r="Q41" s="6">
-        <f>H41/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.35219643706718817</v>
       </c>
       <c r="S41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.88048963814023407</v>
       </c>
       <c r="U41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.006277434275735</v>
       </c>
     </row>
@@ -2565,47 +2566,47 @@
         <v>9.5</v>
       </c>
       <c r="F42" s="4">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="G42" s="4">
-        <v>24.8</v>
+        <v>20.3</v>
       </c>
       <c r="H42" s="4">
         <v>102.6</v>
       </c>
       <c r="I42" s="4">
-        <v>85.2</v>
+        <v>87.7</v>
       </c>
       <c r="J42" s="4">
-        <v>175.3</v>
+        <v>119.8</v>
       </c>
       <c r="K42" s="4">
         <v>285.2</v>
       </c>
       <c r="L42" s="4">
-        <v>237.9</v>
+        <v>245.9</v>
       </c>
       <c r="M42" s="4">
-        <v>480</v>
+        <v>329.7</v>
       </c>
       <c r="O42" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.7523452157598502E-2</v>
       </c>
       <c r="P42" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.7462031724603516E-2</v>
       </c>
       <c r="Q42" s="6">
-        <f>H42/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.33898081091082088</v>
       </c>
       <c r="S42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.84745062732821774</v>
       </c>
       <c r="U42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.96851843111341851</v>
       </c>
     </row>
@@ -2617,47 +2618,47 @@
         <v>37.200000000000003</v>
       </c>
       <c r="F43" s="4">
-        <v>26.1</v>
+        <v>25.2</v>
       </c>
       <c r="G43" s="4">
-        <v>72.3</v>
+        <v>51</v>
       </c>
       <c r="H43" s="4">
         <v>99.1</v>
       </c>
       <c r="I43" s="4">
-        <v>82</v>
+        <v>84.7</v>
       </c>
       <c r="J43" s="4">
-        <v>169.1</v>
+        <v>115.6</v>
       </c>
       <c r="K43" s="4">
         <v>304.60000000000002</v>
       </c>
       <c r="L43" s="4">
-        <v>254.3</v>
+        <v>263.3</v>
       </c>
       <c r="M43" s="4">
-        <v>512.79999999999995</v>
+        <v>353.6</v>
       </c>
       <c r="O43" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.4113060428849908E-2</v>
       </c>
       <c r="P43" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.8022440392706995E-2</v>
       </c>
       <c r="Q43" s="6">
-        <f>H43/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.32741713802399952</v>
       </c>
       <c r="S43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.8185414928677035</v>
       </c>
       <c r="U43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.93547930334639162</v>
       </c>
     </row>
@@ -2669,47 +2670,47 @@
         <v>16.3</v>
       </c>
       <c r="F44" s="4">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="G44" s="4">
-        <v>38.9</v>
+        <v>30.5</v>
       </c>
       <c r="H44" s="4">
         <v>96</v>
       </c>
       <c r="I44" s="4">
-        <v>79.7</v>
+        <v>82.1</v>
       </c>
       <c r="J44" s="4">
-        <v>163.9</v>
+        <v>111.9</v>
       </c>
       <c r="K44" s="4">
         <v>307.7</v>
       </c>
       <c r="L44" s="4">
-        <v>255.6</v>
+        <v>265.3</v>
       </c>
       <c r="M44" s="4">
-        <v>520.79999999999995</v>
+        <v>356.7</v>
       </c>
       <c r="O44" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.1281533804238086E-2</v>
       </c>
       <c r="P44" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0177281680892861E-2</v>
       </c>
       <c r="Q44" s="6">
-        <f>H44/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.31717502775281492</v>
       </c>
       <c r="S44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.79293625948839086</v>
       </c>
       <c r="U44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.90621607589559638</v>
       </c>
     </row>
@@ -2721,47 +2722,47 @@
         <v>15.8</v>
       </c>
       <c r="F45" s="4">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="G45" s="4">
-        <v>40.700000000000003</v>
+        <v>31.7</v>
       </c>
       <c r="H45" s="4">
         <v>92.9</v>
       </c>
       <c r="I45" s="4">
-        <v>77.099999999999994</v>
+        <v>79.5</v>
       </c>
       <c r="J45" s="4">
-        <v>159.6</v>
+        <v>108.4</v>
       </c>
       <c r="K45" s="4">
         <v>307.5</v>
       </c>
       <c r="L45" s="4">
-        <v>255.8</v>
+        <v>264</v>
       </c>
       <c r="M45" s="4">
-        <v>519.6</v>
+        <v>356.6</v>
       </c>
       <c r="O45" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.2291666666666607E-2</v>
       </c>
       <c r="P45" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6.4998375040620292E-4</v>
       </c>
       <c r="Q45" s="6">
-        <f>H45/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.30693291748163026</v>
       </c>
       <c r="S45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.76733102610907833</v>
       </c>
       <c r="U45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.87695284844480115</v>
       </c>
     </row>
@@ -2773,47 +2774,47 @@
         <v>43.7</v>
       </c>
       <c r="F46" s="4">
-        <v>28.4</v>
+        <v>27.1</v>
       </c>
       <c r="G46" s="4">
-        <v>88.7</v>
+        <v>61.4</v>
       </c>
       <c r="H46" s="4">
         <v>92.6</v>
       </c>
       <c r="I46" s="4">
-        <v>77</v>
+        <v>79.2</v>
       </c>
       <c r="J46" s="4">
-        <v>158.5</v>
+        <v>108</v>
       </c>
       <c r="K46" s="4">
         <v>338.5</v>
       </c>
       <c r="L46" s="4">
-        <v>282.39999999999998</v>
+        <v>291.8</v>
       </c>
       <c r="M46" s="4">
-        <v>575</v>
+        <v>393.5</v>
       </c>
       <c r="O46" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.2292787944027054E-3</v>
       </c>
       <c r="P46" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1008130081300813</v>
       </c>
       <c r="Q46" s="6">
-        <f>H46/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.30594174551990266</v>
       </c>
       <c r="S46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.76485310029817699</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.87412092320762724</v>
       </c>
     </row>
@@ -2825,47 +2826,47 @@
         <v>13.3</v>
       </c>
       <c r="F47" s="4">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="G47" s="4">
-        <v>31.9</v>
+        <v>25.9</v>
       </c>
       <c r="H47" s="4">
         <v>93.8</v>
       </c>
       <c r="I47" s="4">
-        <v>77.8</v>
+        <v>80.2</v>
       </c>
       <c r="J47" s="4">
-        <v>160.30000000000001</v>
+        <v>109.6</v>
       </c>
       <c r="K47" s="4">
         <v>341.2</v>
       </c>
       <c r="L47" s="4">
-        <v>284.8</v>
+        <v>294.8</v>
       </c>
       <c r="M47" s="4">
-        <v>576.1</v>
+        <v>395.3</v>
       </c>
       <c r="O47" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2958963282937396E-2</v>
       </c>
       <c r="P47" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.9763663220088297E-3</v>
       </c>
       <c r="Q47" s="6">
-        <f>H47/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.30990643336681289</v>
       </c>
       <c r="S47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.7747648035417819</v>
       </c>
       <c r="U47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88544862415632219</v>
       </c>
     </row>
@@ -2877,47 +2878,47 @@
         <v>10</v>
       </c>
       <c r="F48" s="4">
-        <v>2.2999999999999998</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="G48" s="4">
-        <v>26.3</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="H48" s="4">
         <v>95.9</v>
       </c>
       <c r="I48" s="4">
-        <v>79.599999999999994</v>
+        <v>82</v>
       </c>
       <c r="J48" s="4">
-        <v>164.3</v>
+        <v>112.1</v>
       </c>
       <c r="K48" s="4">
         <v>335</v>
       </c>
       <c r="L48" s="4">
-        <v>279.7</v>
+        <v>288.60000000000002</v>
       </c>
       <c r="M48" s="4">
-        <v>566.9</v>
+        <v>388.5</v>
       </c>
       <c r="O48" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.238805970149263E-2</v>
       </c>
       <c r="P48" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.8171160609613098E-2</v>
       </c>
       <c r="Q48" s="6">
-        <f>H48/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.31684463709890576</v>
       </c>
       <c r="S48" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.79211028421809049</v>
       </c>
       <c r="U48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.90527210081653853</v>
       </c>
     </row>
@@ -2929,47 +2930,47 @@
         <v>12.1</v>
       </c>
       <c r="F49" s="4">
-        <v>5.4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="G49" s="4">
-        <v>27.3</v>
+        <v>20.7</v>
       </c>
       <c r="H49" s="4">
         <v>98.4</v>
       </c>
       <c r="I49" s="4">
-        <v>81.7</v>
+        <v>84</v>
       </c>
       <c r="J49" s="4">
-        <v>169.1</v>
+        <v>115.5</v>
       </c>
       <c r="K49" s="4">
         <v>326.39999999999998</v>
       </c>
       <c r="L49" s="4">
-        <v>273</v>
+        <v>282.10000000000002</v>
       </c>
       <c r="M49" s="4">
-        <v>551.5</v>
+        <v>379.2</v>
       </c>
       <c r="O49" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.6068821689259645E-2</v>
       </c>
       <c r="P49" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.5671641791044843E-2</v>
       </c>
       <c r="Q49" s="6">
-        <f>H49/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.32510440344663527</v>
       </c>
       <c r="S49" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.81275966597560068</v>
       </c>
       <c r="U49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.92887147779298629</v>
       </c>
     </row>
@@ -2981,47 +2982,47 @@
         <v>7.6</v>
       </c>
       <c r="F50" s="4">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="G50" s="4">
-        <v>19.100000000000001</v>
+        <v>15.2</v>
       </c>
       <c r="H50" s="4">
         <v>101.6</v>
       </c>
       <c r="I50" s="4">
-        <v>84.3</v>
+        <v>86.8</v>
       </c>
       <c r="J50" s="4">
-        <v>175.4</v>
+        <v>119.1</v>
       </c>
       <c r="K50" s="4">
         <v>311.8</v>
       </c>
       <c r="L50" s="4">
-        <v>260.10000000000002</v>
+        <v>268.60000000000002</v>
       </c>
       <c r="M50" s="4">
-        <v>529.9</v>
+        <v>362.4</v>
       </c>
       <c r="O50" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.2520325203251918E-2</v>
       </c>
       <c r="P50" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.4730392156862642E-2</v>
       </c>
       <c r="Q50" s="6">
-        <f>H50/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.33567690437172909</v>
       </c>
       <c r="S50" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.83919087462521369</v>
       </c>
       <c r="U50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95907868032283938</v>
       </c>
     </row>
@@ -3033,47 +3034,47 @@
         <v>10.6</v>
       </c>
       <c r="F51" s="4">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="G51" s="4">
-        <v>24.1</v>
+        <v>17.8</v>
       </c>
       <c r="H51" s="4">
         <v>104.3</v>
       </c>
       <c r="I51" s="4">
-        <v>86.5</v>
+        <v>89</v>
       </c>
       <c r="J51" s="4">
-        <v>179.4</v>
+        <v>122.4</v>
       </c>
       <c r="K51" s="4">
         <v>299.10000000000002</v>
       </c>
       <c r="L51" s="4">
-        <v>250.1</v>
+        <v>257.8</v>
       </c>
       <c r="M51" s="4">
-        <v>506.8</v>
+        <v>348.2</v>
       </c>
       <c r="O51" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.6574803149606328E-2</v>
       </c>
       <c r="P51" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.0731237973059616E-2</v>
       </c>
       <c r="Q51" s="6">
-        <f>H51/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.34459745202727704</v>
       </c>
       <c r="S51" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.86149220692332462</v>
       </c>
       <c r="U51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98456600745740308</v>
       </c>
     </row>
@@ -3085,47 +3086,47 @@
         <v>9.9</v>
       </c>
       <c r="F52" s="4">
-        <v>2.2000000000000002</v>
+        <v>2.6</v>
       </c>
       <c r="G52" s="4">
-        <v>23.9</v>
+        <v>18.3</v>
       </c>
       <c r="H52" s="4">
         <v>104.8</v>
       </c>
       <c r="I52" s="4">
-        <v>86.7</v>
+        <v>89.5</v>
       </c>
       <c r="J52" s="4">
-        <v>180.8</v>
+        <v>123</v>
       </c>
       <c r="K52" s="4">
         <v>284.5</v>
       </c>
       <c r="L52" s="4">
-        <v>236.6</v>
+        <v>244.6</v>
       </c>
       <c r="M52" s="4">
-        <v>482.8</v>
+        <v>331.3</v>
       </c>
       <c r="O52" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4.7938638542665392E-3</v>
       </c>
       <c r="P52" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-4.8813105984620603E-2</v>
       </c>
       <c r="Q52" s="6">
-        <f>H52/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.34624940529682291</v>
       </c>
       <c r="S52" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.8656220832748267</v>
       </c>
       <c r="U52" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.98928588285269259</v>
       </c>
     </row>
@@ -3137,47 +3138,47 @@
         <v>16</v>
       </c>
       <c r="F53" s="4">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="G53" s="4">
-        <v>35.5</v>
+        <v>26.7</v>
       </c>
       <c r="H53" s="4">
         <v>103.4</v>
       </c>
       <c r="I53" s="4">
-        <v>85.5</v>
+        <v>88.3</v>
       </c>
       <c r="J53" s="4">
-        <v>178.3</v>
+        <v>121.6</v>
       </c>
       <c r="K53" s="4">
         <v>277.89999999999998</v>
       </c>
       <c r="L53" s="4">
-        <v>231.7</v>
+        <v>238.9</v>
       </c>
       <c r="M53" s="4">
-        <v>475.2</v>
+        <v>323.39999999999998</v>
       </c>
       <c r="O53" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.3358778625954117E-2</v>
       </c>
       <c r="P53" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.3198594024604648E-2</v>
       </c>
       <c r="Q53" s="6">
-        <f>H53/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.34162393614209441</v>
       </c>
       <c r="S53" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.85405842949062105</v>
       </c>
       <c r="U53" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.97607023174588192</v>
       </c>
     </row>
@@ -3189,47 +3190,47 @@
         <v>21.6</v>
       </c>
       <c r="F54" s="4">
-        <v>11.4</v>
+        <v>10.5</v>
       </c>
       <c r="G54" s="4">
-        <v>45.1</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="H54" s="4">
         <v>100.6</v>
       </c>
       <c r="I54" s="4">
-        <v>83.1</v>
+        <v>85.8</v>
       </c>
       <c r="J54" s="4">
-        <v>173.4</v>
+        <v>118.1</v>
       </c>
       <c r="K54" s="4">
         <v>280.60000000000002</v>
       </c>
       <c r="L54" s="4">
-        <v>232.8</v>
+        <v>240.9</v>
       </c>
       <c r="M54" s="4">
-        <v>478.9</v>
+        <v>327.3</v>
       </c>
       <c r="O54" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.7079303675048464E-2</v>
       </c>
       <c r="P54" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.7157250809645403E-3</v>
       </c>
       <c r="Q54" s="6">
-        <f>H54/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.33237299783263724</v>
       </c>
       <c r="S54" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.83093112192220964</v>
       </c>
       <c r="U54" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.94963892953226026</v>
       </c>
     </row>
@@ -3241,47 +3242,47 @@
         <v>10.199999999999999</v>
       </c>
       <c r="F55" s="4">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="G55" s="4">
-        <v>25.9</v>
+        <v>20.3</v>
       </c>
       <c r="H55" s="4">
         <v>97.1</v>
       </c>
       <c r="I55" s="4">
-        <v>80.099999999999994</v>
+        <v>82.8</v>
       </c>
       <c r="J55" s="4">
-        <v>167.4</v>
+        <v>114.1</v>
       </c>
       <c r="K55" s="4">
         <v>274.60000000000002</v>
       </c>
       <c r="L55" s="4">
-        <v>228.4</v>
+        <v>236</v>
       </c>
       <c r="M55" s="4">
-        <v>469.2</v>
+        <v>319.3</v>
       </c>
       <c r="O55" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.4791252485089463E-2</v>
       </c>
       <c r="P55" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.1382751247327154E-2</v>
       </c>
       <c r="Q55" s="6">
-        <f>H55/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.32080932494581588</v>
       </c>
       <c r="S55" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.80202198746169528</v>
       </c>
       <c r="U55" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.91659980176523337</v>
       </c>
     </row>
@@ -3293,47 +3294,47 @@
         <v>11.6</v>
       </c>
       <c r="F56" s="4">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="G56" s="4">
-        <v>25.8</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="H56" s="4">
         <v>93</v>
       </c>
       <c r="I56" s="4">
-        <v>76.8</v>
+        <v>79.3</v>
       </c>
       <c r="J56" s="4">
-        <v>161</v>
+        <v>109.3</v>
       </c>
       <c r="K56" s="4">
         <v>268</v>
       </c>
       <c r="L56" s="4">
-        <v>223.4</v>
+        <v>230.2</v>
       </c>
       <c r="M56" s="4">
-        <v>456.5</v>
+        <v>312.2</v>
       </c>
       <c r="O56" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.2224510813594178E-2</v>
       </c>
       <c r="P56" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.4034959941733512E-2</v>
       </c>
       <c r="Q56" s="6">
-        <f>H56/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.30726330813553943</v>
       </c>
       <c r="S56" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.7681570013793787</v>
       </c>
       <c r="U56" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.877896823523859</v>
       </c>
     </row>
@@ -3348,44 +3349,44 @@
         <v>1.2</v>
       </c>
       <c r="G57" s="4">
-        <v>12.9</v>
+        <v>10</v>
       </c>
       <c r="H57" s="4">
         <v>89.2</v>
       </c>
       <c r="I57" s="4">
-        <v>73.3</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="J57" s="4">
-        <v>154.9</v>
+        <v>105.1</v>
       </c>
       <c r="K57" s="4">
         <v>252.5</v>
       </c>
       <c r="L57" s="4">
-        <v>210.4</v>
+        <v>216.6</v>
       </c>
       <c r="M57" s="4">
-        <v>430.8</v>
+        <v>295</v>
       </c>
       <c r="O57" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-4.0860215053763409E-2</v>
       </c>
       <c r="P57" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.7835820895522388E-2</v>
       </c>
       <c r="Q57" s="6">
-        <f>H57/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.29470846328699052</v>
       </c>
       <c r="S57" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.73676994110796323</v>
       </c>
       <c r="U57" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.84202577051965832</v>
       </c>
     </row>
@@ -3397,47 +3398,47 @@
         <v>7.6</v>
       </c>
       <c r="F58" s="4">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="G58" s="4">
-        <v>18</v>
+        <v>14.1</v>
       </c>
       <c r="H58" s="4">
         <v>86.2</v>
       </c>
       <c r="I58" s="4">
-        <v>70.599999999999994</v>
+        <v>73</v>
       </c>
       <c r="J58" s="4">
-        <v>151</v>
+        <v>101.8</v>
       </c>
       <c r="K58" s="4">
         <v>238.7</v>
       </c>
       <c r="L58" s="4">
-        <v>197.6</v>
+        <v>203.6</v>
       </c>
       <c r="M58" s="4">
-        <v>410.9</v>
+        <v>279.39999999999998</v>
       </c>
       <c r="O58" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-3.3632286995515695E-2</v>
       </c>
       <c r="P58" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.4653465346534695E-2</v>
       </c>
       <c r="Q58" s="6">
-        <f>H58/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.28479674366971508</v>
       </c>
       <c r="S58" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.71199068299895107</v>
       </c>
       <c r="U58" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.81370651814792094</v>
       </c>
     </row>
@@ -3449,47 +3450,47 @@
         <v>14.3</v>
       </c>
       <c r="F59" s="4">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="G59" s="4">
-        <v>30.7</v>
+        <v>22.7</v>
       </c>
       <c r="H59" s="4">
         <v>84.7</v>
       </c>
       <c r="I59" s="4">
-        <v>69.2</v>
+        <v>71.599999999999994</v>
       </c>
       <c r="J59" s="4">
-        <v>148.5</v>
+        <v>100.1</v>
       </c>
       <c r="K59" s="4">
         <v>234.2</v>
       </c>
       <c r="L59" s="4">
-        <v>194.4</v>
+        <v>199.7</v>
       </c>
       <c r="M59" s="4">
-        <v>404.6</v>
+        <v>273.89999999999998</v>
       </c>
       <c r="O59" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.7401392111368909E-2</v>
       </c>
       <c r="P59" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.8852115626309177E-2</v>
       </c>
       <c r="Q59" s="6">
-        <f>H59/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.27984088386107731</v>
       </c>
       <c r="S59" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.69960105394444494</v>
       </c>
       <c r="U59" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.7995468919620522</v>
       </c>
     </row>
@@ -3501,47 +3502,47 @@
         <v>49.9</v>
       </c>
       <c r="F60" s="4">
-        <v>36.5</v>
+        <v>36.1</v>
       </c>
       <c r="G60" s="4">
-        <v>92.3</v>
+        <v>65.3</v>
       </c>
       <c r="H60" s="4">
         <v>83.5</v>
       </c>
       <c r="I60" s="4">
-        <v>68.3</v>
+        <v>70.400000000000006</v>
       </c>
       <c r="J60" s="4">
-        <v>146.19999999999999</v>
+        <v>98.9</v>
       </c>
       <c r="K60" s="4">
         <v>271.10000000000002</v>
       </c>
       <c r="L60" s="4">
-        <v>223.1</v>
+        <v>231.1</v>
       </c>
       <c r="M60" s="4">
-        <v>468.2</v>
+        <v>317.10000000000002</v>
       </c>
       <c r="O60" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.4167650531286928E-2</v>
       </c>
       <c r="P60" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15755764304013678</v>
       </c>
       <c r="Q60" s="6">
-        <f>H60/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.27587619601416713</v>
       </c>
       <c r="S60" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.68968935070084003</v>
       </c>
       <c r="U60" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.78821919101335725</v>
       </c>
     </row>
@@ -3553,47 +3554,47 @@
         <v>21.5</v>
       </c>
       <c r="F61" s="4">
-        <v>9.6999999999999993</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G61" s="4">
-        <v>49.7</v>
+        <v>37.1</v>
       </c>
       <c r="H61" s="4">
         <v>82.9</v>
       </c>
       <c r="I61" s="4">
-        <v>67.8</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="J61" s="4">
-        <v>144.6</v>
+        <v>98</v>
       </c>
       <c r="K61" s="4">
         <v>287.5</v>
       </c>
       <c r="L61" s="4">
-        <v>237.6</v>
+        <v>244.4</v>
       </c>
       <c r="M61" s="4">
-        <v>500.5</v>
+        <v>336.2</v>
       </c>
       <c r="O61" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-7.1856287425149023E-3</v>
       </c>
       <c r="P61" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.049428255256354E-2</v>
       </c>
       <c r="Q61" s="6">
-        <f>H61/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.27389385209071204</v>
       </c>
       <c r="S61" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.68473349907903758</v>
       </c>
       <c r="U61" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.78255534053900977</v>
       </c>
     </row>
@@ -3605,47 +3606,47 @@
         <v>95.9</v>
       </c>
       <c r="F62" s="4">
-        <v>68.3</v>
+        <v>67.5</v>
       </c>
       <c r="G62" s="4">
-        <v>175.4</v>
+        <v>124.2</v>
       </c>
       <c r="H62" s="4">
         <v>83.1</v>
       </c>
       <c r="I62" s="4">
-        <v>67.900000000000006</v>
+        <v>70</v>
       </c>
       <c r="J62" s="4">
-        <v>144.5</v>
+        <v>98.2</v>
       </c>
       <c r="K62" s="4">
         <v>383.1</v>
       </c>
       <c r="L62" s="4">
-        <v>311.39999999999998</v>
+        <v>323.3</v>
       </c>
       <c r="M62" s="4">
-        <v>663.2</v>
+        <v>449.9</v>
       </c>
       <c r="O62" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2.4125452352230232E-3</v>
       </c>
       <c r="P62" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.33252173913043487</v>
       </c>
       <c r="Q62" s="6">
-        <f>H62/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.27455463339853037</v>
       </c>
       <c r="S62" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.68638544961963832</v>
       </c>
       <c r="U62" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.78444329069712548</v>
       </c>
     </row>
@@ -3657,47 +3658,47 @@
         <v>94.3</v>
       </c>
       <c r="F63" s="4">
-        <v>67.8</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="G63" s="4">
-        <v>183.8</v>
+        <v>131.80000000000001</v>
       </c>
       <c r="H63" s="4">
         <v>86.3</v>
       </c>
       <c r="I63" s="4">
-        <v>70.7</v>
+        <v>72.8</v>
       </c>
       <c r="J63" s="4">
-        <v>150.1</v>
+        <v>101.8</v>
       </c>
       <c r="K63" s="4">
         <v>492.3</v>
       </c>
       <c r="L63" s="4">
-        <v>406.6</v>
+        <v>421.3</v>
       </c>
       <c r="M63" s="4">
-        <v>856.3</v>
+        <v>580.20000000000005</v>
       </c>
       <c r="O63" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3.8507821901323742E-2</v>
       </c>
       <c r="P63" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.28504306969459664</v>
       </c>
       <c r="Q63" s="6">
-        <f>H63/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.28512713432362424</v>
       </c>
       <c r="S63" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.71281665826925134</v>
       </c>
       <c r="U63" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8146504932269788</v>
       </c>
     </row>
@@ -3709,47 +3710,47 @@
         <v>42.7</v>
       </c>
       <c r="F64" s="4">
-        <v>9</v>
+        <v>7.3</v>
       </c>
       <c r="G64" s="4">
-        <v>96.9</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="H64" s="4">
         <v>94.6</v>
       </c>
       <c r="I64" s="4">
-        <v>77.599999999999994</v>
+        <v>80.099999999999994</v>
       </c>
       <c r="J64" s="4">
-        <v>164</v>
+        <v>111.6</v>
       </c>
       <c r="K64" s="4">
         <v>553.5</v>
       </c>
       <c r="L64" s="4">
-        <v>452.9</v>
+        <v>468.5</v>
       </c>
       <c r="M64" s="4">
-        <v>947.8</v>
+        <v>646.9</v>
       </c>
       <c r="O64" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9.6176129779837749E-2</v>
       </c>
       <c r="P64" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.12431444241316268</v>
       </c>
       <c r="Q64" s="6">
-        <f>H64/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.31254955859808631</v>
       </c>
       <c r="S64" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.78137260570418521</v>
       </c>
       <c r="U64" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8930004247887855</v>
       </c>
     </row>
@@ -3761,47 +3762,47 @@
         <v>82.4</v>
       </c>
       <c r="F65" s="4">
-        <v>54</v>
+        <v>52.8</v>
       </c>
       <c r="G65" s="4">
-        <v>170.6</v>
+        <v>121.6</v>
       </c>
       <c r="H65" s="4">
         <v>110.4</v>
       </c>
       <c r="I65" s="4">
-        <v>90.9</v>
+        <v>93.8</v>
       </c>
       <c r="J65" s="4">
-        <v>189.4</v>
+        <v>129.6</v>
       </c>
       <c r="K65" s="4">
         <v>648.9</v>
       </c>
       <c r="L65" s="4">
-        <v>534.4</v>
+        <v>555.1</v>
       </c>
       <c r="M65" s="4">
-        <v>1118.0999999999999</v>
+        <v>759.3</v>
       </c>
       <c r="O65" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.16701902748414391</v>
       </c>
       <c r="P65" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17235772357723572</v>
       </c>
       <c r="Q65" s="6">
-        <f>H65/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.36475128191573714</v>
       </c>
       <c r="S65" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.91187669841164953</v>
       </c>
       <c r="U65" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.0421484872799358</v>
       </c>
     </row>
@@ -3813,47 +3814,47 @@
         <v>25.1</v>
       </c>
       <c r="F66" s="4">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="G66" s="4">
-        <v>67.900000000000006</v>
+        <v>54.4</v>
       </c>
       <c r="H66" s="4">
         <v>133.19999999999999</v>
       </c>
       <c r="I66" s="4">
-        <v>109.6</v>
+        <v>113.4</v>
       </c>
       <c r="J66" s="4">
-        <v>227.1</v>
+        <v>156</v>
       </c>
       <c r="K66" s="4">
         <v>681.8</v>
       </c>
       <c r="L66" s="4">
-        <v>558.70000000000005</v>
+        <v>579.70000000000005</v>
       </c>
       <c r="M66" s="4">
-        <v>1153.5999999999999</v>
+        <v>793.9</v>
       </c>
       <c r="O66" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.20652173913043462</v>
       </c>
       <c r="P66" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.0701186623516685E-2</v>
       </c>
       <c r="Q66" s="6">
-        <f>H66/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.44008035100703063</v>
       </c>
       <c r="S66" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.1001990600401423</v>
       </c>
       <c r="U66" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.2573748053051399</v>
       </c>
     </row>
@@ -3865,51 +3866,51 @@
         <v>27.9</v>
       </c>
       <c r="F67" s="10">
-        <v>5.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G67" s="10">
-        <v>70.2</v>
+        <v>53.2</v>
       </c>
       <c r="H67" s="10">
         <v>160.69999999999999</v>
       </c>
       <c r="I67" s="10">
-        <v>132.19999999999999</v>
+        <v>136.69999999999999</v>
       </c>
       <c r="J67" s="10">
-        <v>273.10000000000002</v>
+        <v>188.2</v>
       </c>
       <c r="K67" s="10">
         <v>698</v>
       </c>
       <c r="L67" s="10">
-        <v>564.79999999999995</v>
+        <v>588.5</v>
       </c>
       <c r="M67" s="10">
-        <v>1170.5999999999999</v>
+        <v>808.3</v>
       </c>
       <c r="O67" s="7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.20645645645645647</v>
       </c>
       <c r="P67" s="7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.376063361689652E-2</v>
       </c>
       <c r="Q67" s="6">
-        <f>H67/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.53093778083205578</v>
       </c>
       <c r="S67" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3273422593727542</v>
       </c>
       <c r="U67" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.5169679520460659</v>
       </c>
     </row>
-    <row r="68" spans="4:21" ht="12" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:21" ht="10.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D68" s="11">
         <v>2024</v>
       </c>
@@ -3926,38 +3927,38 @@
         <v>191.1</v>
       </c>
       <c r="I68" s="12">
-        <v>157.19999999999999</v>
+        <v>162.6</v>
       </c>
       <c r="J68" s="12">
-        <v>322</v>
+        <v>223.3</v>
       </c>
       <c r="K68" s="12">
         <v>705.1</v>
       </c>
       <c r="L68" s="12">
-        <v>571</v>
+        <v>594.4</v>
       </c>
       <c r="M68" s="12">
-        <v>1183.4000000000001</v>
+        <v>818.3</v>
       </c>
       <c r="O68" s="7">
-        <f t="shared" ref="O68" si="4">(H68-H67)/H67</f>
+        <f>(H68-H67)/H67</f>
         <v>0.18917237087741137</v>
       </c>
       <c r="P68" s="7">
-        <f t="shared" ref="P68" si="5">(K68-K67)/K67</f>
+        <f t="shared" ref="P68" si="6">(K68-K67)/K67</f>
         <v>1.0171919770773672E-2</v>
       </c>
       <c r="Q68" s="6">
-        <f>H68/($R$2/1000)</f>
+        <f t="shared" si="5"/>
         <v>0.63137653962044715</v>
       </c>
       <c r="S68" s="1">
-        <f t="shared" ref="S68" si="6">H68/($T$2/1000)</f>
+        <f t="shared" ref="S68" si="7">H68/($T$2/1000)</f>
         <v>1.5784387415440781</v>
       </c>
       <c r="U68" s="1">
-        <f t="shared" ref="U68" si="7">H68/($V$2/1000)</f>
+        <f t="shared" ref="U68" si="8">H68/($V$2/1000)</f>
         <v>1.8039363760796714</v>
       </c>
     </row>
@@ -4003,7 +4004,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="4:21" ht="15" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:21" ht="13.8" x14ac:dyDescent="0.2">
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
       <c r="G72" s="13"/>
@@ -4032,7 +4033,7 @@
         <v>2.0740454052013026</v>
       </c>
     </row>
-    <row r="73" spans="4:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:21" ht="13.8" x14ac:dyDescent="0.25">
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
       <c r="G73" s="13"/>
@@ -4042,6 +4043,16 @@
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
       <c r="M73" s="13"/>
+      <c r="O73" s="1">
+        <v>2026</v>
+      </c>
+      <c r="P73" s="14">
+        <v>241217</v>
+      </c>
+      <c r="Q73" s="1">
+        <f>P73/R2</f>
+        <v>0.79695842364011205</v>
+      </c>
     </row>
     <row r="74" spans="4:21" x14ac:dyDescent="0.2">
       <c r="E74" s="13"/>
@@ -4072,6 +4083,10 @@
       </c>
     </row>
     <row r="76" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="H76" s="1">
+        <f>234*3</f>
+        <v>702</v>
+      </c>
       <c r="M76" s="1" t="s">
         <v>14</v>
       </c>
@@ -4082,6 +4097,18 @@
       <c r="P76" s="7">
         <f>(K68-K59)/K59</f>
         <v>2.0106746370623401</v>
+      </c>
+    </row>
+    <row r="77" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="F77" s="1">
+        <f>83*2</f>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="78" spans="4:21" x14ac:dyDescent="0.2">
+      <c r="F78" s="1">
+        <f>83*3</f>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
